--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5534811675417524</v>
+        <v>-0.1689598814486957</v>
       </c>
       <c r="C2">
-        <v>0.793564982846189</v>
+        <v>0.1850224544874875</v>
       </c>
       <c r="D2">
-        <v>0.5838088083407802</v>
+        <v>0.1664133624047991</v>
       </c>
       <c r="E2">
-        <v>0.4279509864022463</v>
+        <v>0.1475759871843942</v>
       </c>
       <c r="F2">
-        <v>0.3362700263428886</v>
+        <v>0.08311913068982839</v>
       </c>
       <c r="G2">
-        <v>-0.412535015729934</v>
+        <v>-0.05200253022877937</v>
       </c>
       <c r="H2">
-        <v>0.3823899357220606</v>
+        <v>0.07271761995934073</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.7828026586050324</v>
+        <v>-0.4641207466577495</v>
       </c>
       <c r="C3">
-        <v>0.8232658876276122</v>
+        <v>0.4210987672153702</v>
       </c>
       <c r="D3">
-        <v>0.5840148050308482</v>
+        <v>0.5277474329392253</v>
       </c>
       <c r="E3">
-        <v>0.6881622951817632</v>
+        <v>0.1853392233073859</v>
       </c>
       <c r="F3">
-        <v>0.4523694459313391</v>
+        <v>0.1995261323312976</v>
       </c>
       <c r="G3">
-        <v>-0.4636483896861647</v>
+        <v>-0.09118384874447591</v>
       </c>
       <c r="H3">
-        <v>0.3508612308887373</v>
+        <v>0.2311291076290926</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4504483618152308</v>
+        <v>-1.023274653924177</v>
       </c>
       <c r="C4">
-        <v>0.6021273362439491</v>
+        <v>1.089764836338835</v>
       </c>
       <c r="D4">
-        <v>0.6189923793687214</v>
+        <v>0.6965715900109403</v>
       </c>
       <c r="E4">
-        <v>0.2693762080102646</v>
+        <v>0.4465601703720277</v>
       </c>
       <c r="F4">
-        <v>0.1647857022580861</v>
+        <v>0.3473416280706962</v>
       </c>
       <c r="G4">
-        <v>-0.1956483432287455</v>
+        <v>-0.3720161190800919</v>
       </c>
       <c r="H4">
-        <v>0.01794749837166189</v>
+        <v>0.4658874572846722</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5892775963122097</v>
+        <v>-0.6654397321101642</v>
       </c>
       <c r="C5">
-        <v>1.144531462873273</v>
+        <v>0.9261524403974075</v>
       </c>
       <c r="D5">
-        <v>1.020993734565212</v>
+        <v>0.3580968170976639</v>
       </c>
       <c r="E5">
-        <v>0.1971516959270463</v>
+        <v>0.5441242267177404</v>
       </c>
       <c r="F5">
-        <v>0.4389201698575024</v>
+        <v>0.1653384066178138</v>
       </c>
       <c r="G5">
-        <v>-1.166732860275697</v>
+        <v>-0.1983823802080538</v>
       </c>
       <c r="H5">
-        <v>0.07758264215232072</v>
+        <v>0.2825129344674412</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.320729209454822</v>
+        <v>-0.705669555184792</v>
       </c>
       <c r="C6">
-        <v>0.7492614228735994</v>
+        <v>0.9646058747819433</v>
       </c>
       <c r="D6">
-        <v>1.90407045277713</v>
+        <v>0.5714191965844516</v>
       </c>
       <c r="E6">
-        <v>0.2855993824278424</v>
+        <v>0.1579145853970583</v>
       </c>
       <c r="F6">
-        <v>0.1887770849048376</v>
+        <v>0.2693576130836217</v>
       </c>
       <c r="G6">
-        <v>-0.1427688598910041</v>
+        <v>-0.2880163717193482</v>
       </c>
       <c r="H6">
-        <v>0.100821852792227</v>
+        <v>0.388170172638852</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1869748084484557</v>
+        <v>-0.2295897212542022</v>
       </c>
       <c r="C7">
-        <v>0.1859533823137509</v>
+        <v>0.1996649236870053</v>
       </c>
       <c r="D7">
-        <v>0.1666171452189553</v>
+        <v>0.1928313908116032</v>
       </c>
       <c r="E7">
-        <v>0.1613292205710483</v>
+        <v>0.1711258182910955</v>
       </c>
       <c r="F7">
-        <v>0.1344441048741535</v>
+        <v>0.103794958839276</v>
       </c>
       <c r="G7">
-        <v>-0.02647310068872448</v>
+        <v>-0.05074592752779306</v>
       </c>
       <c r="H7">
-        <v>0.05718779366060275</v>
+        <v>0.1102369138474513</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3477881653203027</v>
+        <v>-0.027404749441732</v>
       </c>
       <c r="C8">
-        <v>0.4878486337994206</v>
+        <v>0.02537918495089865</v>
       </c>
       <c r="D8">
-        <v>0.4277438243803967</v>
+        <v>0.03091235452719761</v>
       </c>
       <c r="E8">
-        <v>0.2489627918034769</v>
+        <v>0.01767764421703266</v>
       </c>
       <c r="F8">
-        <v>0.05236026571827918</v>
+        <v>0.01324213153819104</v>
       </c>
       <c r="G8">
-        <v>-0.1186738943778934</v>
+        <v>-0.0065307410333059</v>
       </c>
       <c r="H8">
-        <v>0.1203764873991569</v>
+        <v>0.01298021827618594</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.7169384734073554</v>
+        <v>-0.003086290100834815</v>
       </c>
       <c r="C9">
-        <v>1.271491259490914</v>
+        <v>0.00264325197057146</v>
       </c>
       <c r="D9">
-        <v>0.8139227964137886</v>
+        <v>0.003451084584833416</v>
       </c>
       <c r="E9">
-        <v>0.2544214703233362</v>
+        <v>0.001876605253725842</v>
       </c>
       <c r="F9">
-        <v>0.4172834417500413</v>
+        <v>0.00176235593510953</v>
       </c>
       <c r="G9">
-        <v>-0.9971231650753174</v>
+        <v>-0.0006714473597545493</v>
       </c>
       <c r="H9">
-        <v>0.2979882577862597</v>
+        <v>0.001101127553243842</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.6115635070903941</v>
+        <v>-0.2118631632817133</v>
       </c>
       <c r="C10">
-        <v>0.6153472888511001</v>
+        <v>0.139592527911152</v>
       </c>
       <c r="D10">
-        <v>0.8080063533778012</v>
+        <v>0.2552853137266889</v>
       </c>
       <c r="E10">
-        <v>0.4223282238925633</v>
+        <v>0.1516635047049081</v>
       </c>
       <c r="F10">
-        <v>0.3988533693492483</v>
+        <v>0.04577394183800747</v>
       </c>
       <c r="G10">
-        <v>-0.3517447557718147</v>
+        <v>-0.03829493439571643</v>
       </c>
       <c r="H10">
-        <v>0.003570677035015916</v>
+        <v>0.08210755818660168</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.241731628110757</v>
+        <v>-0.002303732736778474</v>
       </c>
       <c r="C11">
-        <v>0.2164078479022987</v>
+        <v>0.002057877156940676</v>
       </c>
       <c r="D11">
-        <v>0.1917106151015224</v>
+        <v>0.002757958379133904</v>
       </c>
       <c r="E11">
-        <v>0.1721021851187608</v>
+        <v>0.002025140453872373</v>
       </c>
       <c r="F11">
-        <v>0.09831945767657396</v>
+        <v>0.001428850473511777</v>
       </c>
       <c r="G11">
-        <v>-0.02750714100694624</v>
+        <v>-0.0006729860306177988</v>
       </c>
       <c r="H11">
-        <v>0.1198575745346712</v>
+        <v>0.001348202060395328</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.9939603210437556</v>
+        <v>-0.6398935687839007</v>
       </c>
       <c r="C12">
-        <v>1.023718193437605</v>
+        <v>0.4999804753865349</v>
       </c>
       <c r="D12">
-        <v>1.093924291816324</v>
+        <v>0.6647418845120011</v>
       </c>
       <c r="E12">
-        <v>0.3477919833222666</v>
+        <v>0.3566078887494029</v>
       </c>
       <c r="F12">
-        <v>0.3479314035820825</v>
+        <v>0.2786622394496677</v>
       </c>
       <c r="G12">
-        <v>-0.3254114933023717</v>
+        <v>-0.13973180041809</v>
       </c>
       <c r="H12">
-        <v>-0.03437764826808424</v>
+        <v>0.3155435475137349</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1907899013961975</v>
+        <v>-0.5429750734992973</v>
       </c>
       <c r="C13">
-        <v>0.1697483268594622</v>
+        <v>0.5441201845053899</v>
       </c>
       <c r="D13">
-        <v>0.2037677505981437</v>
+        <v>0.4224361841188861</v>
       </c>
       <c r="E13">
-        <v>0.1458648778008848</v>
+        <v>0.2533259312692742</v>
       </c>
       <c r="F13">
-        <v>0.1222745125260386</v>
+        <v>0.3060545836020231</v>
       </c>
       <c r="G13">
-        <v>-0.02798880752063931</v>
+        <v>-0.1846124524068147</v>
       </c>
       <c r="H13">
-        <v>0.06348070150905979</v>
+        <v>0.1327474229691892</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.9841946113043829</v>
+        <v>-0.4061239027235459</v>
       </c>
       <c r="C14">
-        <v>0.8072661193807503</v>
+        <v>0.3056733171832757</v>
       </c>
       <c r="D14">
-        <v>1.427647734026899</v>
+        <v>0.4646667483918375</v>
       </c>
       <c r="E14">
-        <v>0.02545136466152585</v>
+        <v>0.2867665228165401</v>
       </c>
       <c r="F14">
-        <v>-0.08012991886454648</v>
+        <v>0.183992639404822</v>
       </c>
       <c r="G14">
-        <v>-0.1669895580416331</v>
+        <v>-0.1239134788507057</v>
       </c>
       <c r="H14">
-        <v>0.1966642633782499</v>
+        <v>0.2649278726099425</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.6421382102026149</v>
+        <v>-0.7690495696881161</v>
       </c>
       <c r="C15">
-        <v>0.5379786817594386</v>
+        <v>0.82074737241828</v>
       </c>
       <c r="D15">
-        <v>0.6440839519133039</v>
+        <v>0.4794608397364278</v>
       </c>
       <c r="E15">
-        <v>0.5047596928120424</v>
+        <v>0.3135044931809586</v>
       </c>
       <c r="F15">
-        <v>0.2497748364370777</v>
+        <v>0.2710044725935237</v>
       </c>
       <c r="G15">
-        <v>-0.1653533912315704</v>
+        <v>-0.1888613024296482</v>
       </c>
       <c r="H15">
-        <v>0.570097151180919</v>
+        <v>0.158705219614878</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.5507456918238557</v>
+        <v>-0.7299706746483263</v>
       </c>
       <c r="C16">
-        <v>0.6686194104531409</v>
+        <v>0.8725095940111921</v>
       </c>
       <c r="D16">
-        <v>0.5030849729436517</v>
+        <v>0.6976401267473156</v>
       </c>
       <c r="E16">
-        <v>0.3706898024191448</v>
+        <v>0.3008635657609751</v>
       </c>
       <c r="F16">
-        <v>0.2747368955331921</v>
+        <v>0.2317547962776954</v>
       </c>
       <c r="G16">
-        <v>-0.1658971562566178</v>
+        <v>-0.3890634080554429</v>
       </c>
       <c r="H16">
-        <v>0.2606697069042446</v>
+        <v>0.2448649515790469</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.002797629719842807</v>
+        <v>-1.000978099072921</v>
       </c>
       <c r="C17">
-        <v>0.002541469263837178</v>
+        <v>1.183774314398158</v>
       </c>
       <c r="D17">
-        <v>0.002931457163960304</v>
+        <v>0.75117149949341</v>
       </c>
       <c r="E17">
-        <v>0.002478726058231449</v>
+        <v>0.5271628288904756</v>
       </c>
       <c r="F17">
-        <v>0.001682873573285562</v>
+        <v>0.0879824386241808</v>
       </c>
       <c r="G17">
-        <v>-0.0003221335627817082</v>
+        <v>-0.4023229605452663</v>
       </c>
       <c r="H17">
-        <v>0.001228148706848233</v>
+        <v>-0.1411220093482213</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.502757782277495</v>
+        <v>-0.5151699825421366</v>
       </c>
       <c r="C18">
-        <v>0.7089115563269689</v>
+        <v>0.4809388070419289</v>
       </c>
       <c r="D18">
-        <v>0.4854850374488032</v>
+        <v>0.5348984395523059</v>
       </c>
       <c r="E18">
-        <v>0.2355116094669288</v>
+        <v>0.3293532432448021</v>
       </c>
       <c r="F18">
-        <v>0.2210372650074794</v>
+        <v>0.2368321825899092</v>
       </c>
       <c r="G18">
-        <v>-0.2643039244153656</v>
+        <v>-0.1819771218039908</v>
       </c>
       <c r="H18">
-        <v>0.2201049850383742</v>
+        <v>0.2577411858549239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5166422515360226</v>
+        <v>-0.02360577300600213</v>
       </c>
       <c r="C19">
-        <v>0.5560852543563152</v>
+        <v>0.01979360471855408</v>
       </c>
       <c r="D19">
-        <v>0.3689821196992327</v>
+        <v>0.02891519717287212</v>
       </c>
       <c r="E19">
-        <v>0.443385421960088</v>
+        <v>0.01924516647365077</v>
       </c>
       <c r="F19">
-        <v>0.3525399938275716</v>
+        <v>0.01525303339321747</v>
       </c>
       <c r="G19">
-        <v>-0.200392924064058</v>
+        <v>-0.00647011921976447</v>
       </c>
       <c r="H19">
-        <v>0.294676785474189</v>
+        <v>0.01016376698375496</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5625420843057675</v>
+        <v>-0.02027471634656159</v>
       </c>
       <c r="C20">
-        <v>1.069258301237616</v>
+        <v>0.01911433065477019</v>
       </c>
       <c r="D20">
-        <v>0.4548600275553856</v>
+        <v>0.02465820412047314</v>
       </c>
       <c r="E20">
-        <v>0.3648973142106186</v>
+        <v>0.02105993623212635</v>
       </c>
       <c r="F20">
-        <v>0.2096739064430564</v>
+        <v>0.01081943740221537</v>
       </c>
       <c r="G20">
-        <v>-0.5466282007423275</v>
+        <v>-0.006408045061835477</v>
       </c>
       <c r="H20">
-        <v>0.2472435159044465</v>
+        <v>0.01143328097520362</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.9410149285893645</v>
+        <v>-1.074714173079928</v>
       </c>
       <c r="C21">
-        <v>1.471243875295741</v>
+        <v>0.5689718607881878</v>
       </c>
       <c r="D21">
-        <v>0.7389967381920082</v>
+        <v>0.7093449553942969</v>
       </c>
       <c r="E21">
-        <v>0.4193130305290903</v>
+        <v>0.7736718126405184</v>
       </c>
       <c r="F21">
-        <v>0.1739617808278518</v>
+        <v>0.717784459964993</v>
       </c>
       <c r="G21">
-        <v>-0.7351803868860818</v>
+        <v>-0.2629434460025112</v>
       </c>
       <c r="H21">
-        <v>0.1030364658223894</v>
+        <v>0.5312166059905603</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.3568976036389431</v>
+        <v>-0.9587872996465137</v>
       </c>
       <c r="C22">
-        <v>0.3024193821103062</v>
+        <v>0.8450080436934648</v>
       </c>
       <c r="D22">
-        <v>0.4688103126071457</v>
+        <v>1.086545618439533</v>
       </c>
       <c r="E22">
-        <v>0.188184816476772</v>
+        <v>0.4033370041308779</v>
       </c>
       <c r="F22">
-        <v>0.3311027811251229</v>
+        <v>0.4971681840490477</v>
       </c>
       <c r="G22">
-        <v>-0.1193230789220582</v>
+        <v>-0.3214402802024405</v>
       </c>
       <c r="H22">
-        <v>0.1947556487791191</v>
+        <v>0.03344108405180554</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.4173669573115363</v>
+        <v>-0.859180956583512</v>
       </c>
       <c r="C23">
-        <v>0.4643709264193049</v>
+        <v>0.7439510060733251</v>
       </c>
       <c r="D23">
-        <v>0.3970550483559244</v>
+        <v>0.9768905886105239</v>
       </c>
       <c r="E23">
-        <v>0.2845529532846055</v>
+        <v>-0.0004082566470269806</v>
       </c>
       <c r="F23">
-        <v>0.2625185854989738</v>
+        <v>0.07379600104840943</v>
       </c>
       <c r="G23">
-        <v>-0.08639642874005211</v>
+        <v>-0.0833034372481201</v>
       </c>
       <c r="H23">
-        <v>0.2516756166092272</v>
+        <v>0.03419219254434145</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.5885319969510265</v>
+        <v>-0.02708415023656164</v>
       </c>
       <c r="C24">
-        <v>0.7449207671258053</v>
+        <v>0.02637791209069298</v>
       </c>
       <c r="D24">
-        <v>0.6601061248025442</v>
+        <v>0.02621373047527078</v>
       </c>
       <c r="E24">
-        <v>0.2785043732311104</v>
+        <v>0.02485880428747626</v>
       </c>
       <c r="F24">
-        <v>0.508963573155845</v>
+        <v>0.01200332631762356</v>
       </c>
       <c r="G24">
-        <v>-0.4618547055518298</v>
+        <v>-0.006421175227606229</v>
       </c>
       <c r="H24">
-        <v>0.3767900081730141</v>
+        <v>0.008739322712877199</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.651277155583499</v>
+        <v>-0.4913691519193614</v>
       </c>
       <c r="C25">
-        <v>0.9323343829193077</v>
+        <v>0.4957571378130267</v>
       </c>
       <c r="D25">
-        <v>0.5967886523542631</v>
+        <v>0.4262227411203384</v>
       </c>
       <c r="E25">
-        <v>0.4397395648726324</v>
+        <v>0.3138609154002359</v>
       </c>
       <c r="F25">
-        <v>0.4381148979798865</v>
+        <v>0.122403501168538</v>
       </c>
       <c r="G25">
-        <v>-0.572152327410515</v>
+        <v>-0.1349580522706354</v>
       </c>
       <c r="H25">
-        <v>0.3039568926221007</v>
+        <v>0.2543297710292499</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.396350568577462</v>
+        <v>-1.29395212882632</v>
       </c>
       <c r="C26">
-        <v>1.221772193443508</v>
+        <v>1.84441770421254</v>
       </c>
       <c r="D26">
-        <v>1.308143770072147</v>
+        <v>0.9134768250810155</v>
       </c>
       <c r="E26">
-        <v>0.6919032174574491</v>
+        <v>0.434524331695378</v>
       </c>
       <c r="F26">
-        <v>0.3439353303128457</v>
+        <v>-0.1343240484741534</v>
       </c>
       <c r="G26">
-        <v>-0.3410482123228017</v>
+        <v>-0.4604867799675543</v>
       </c>
       <c r="H26">
-        <v>-0.1418654320176794</v>
+        <v>-0.1917375072516594</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.4569552777858827</v>
+        <v>-1.420073157217845</v>
       </c>
       <c r="C27">
-        <v>0.3253148386678993</v>
+        <v>0.745306190310111</v>
       </c>
       <c r="D27">
-        <v>0.4902450792601014</v>
+        <v>1.66410493343944</v>
       </c>
       <c r="E27">
-        <v>0.3794518084786235</v>
+        <v>0.5165921695126421</v>
       </c>
       <c r="F27">
-        <v>0.1372237188279893</v>
+        <v>0.2716619028777087</v>
       </c>
       <c r="G27">
-        <v>-0.101598029362872</v>
+        <v>0.0829300033205084</v>
       </c>
       <c r="H27">
-        <v>0.3243856989320952</v>
+        <v>0.3750429372300343</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.5368334831712774</v>
+        <v>-0.4121308309972716</v>
       </c>
       <c r="C28">
-        <v>0.4726133725909665</v>
+        <v>0.4382138499259046</v>
       </c>
       <c r="D28">
-        <v>0.6159110959023291</v>
+        <v>0.3579768891647963</v>
       </c>
       <c r="E28">
-        <v>0.2649730122116917</v>
+        <v>0.2391362373939065</v>
       </c>
       <c r="F28">
-        <v>0.08237845856856277</v>
+        <v>0.2748829629647105</v>
       </c>
       <c r="G28">
-        <v>-0.03932334278416091</v>
+        <v>-0.09652400606233869</v>
       </c>
       <c r="H28">
-        <v>0.1748704056379228</v>
+        <v>0.2847669697860628</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.5259753964092801</v>
+        <v>-0.6194509587641905</v>
       </c>
       <c r="C29">
-        <v>0.7072566564922748</v>
+        <v>0.6965236747212773</v>
       </c>
       <c r="D29">
-        <v>0.6741868263744947</v>
+        <v>0.5478568579668868</v>
       </c>
       <c r="E29">
-        <v>0.1805778818600552</v>
+        <v>0.3680122641861812</v>
       </c>
       <c r="F29">
-        <v>0.322975992657376</v>
+        <v>0.3261674369599049</v>
       </c>
       <c r="G29">
-        <v>-0.3847421207613929</v>
+        <v>-0.2199652801527563</v>
       </c>
       <c r="H29">
-        <v>0.4939892846845806</v>
+        <v>0.3062121481621249</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.6181334954368515</v>
+        <v>-0.002874108789552606</v>
       </c>
       <c r="C30">
-        <v>1.043706230124698</v>
+        <v>0.002589791336519875</v>
       </c>
       <c r="D30">
-        <v>0.8512887389933756</v>
+        <v>0.003244972905709679</v>
       </c>
       <c r="E30">
-        <v>0.4401124899033288</v>
+        <v>0.001970729417737372</v>
       </c>
       <c r="F30">
-        <v>0.4481031618208697</v>
+        <v>0.001611383293660432</v>
       </c>
       <c r="G30">
-        <v>-1.096827450579391</v>
+        <v>-0.0006704492746489136</v>
       </c>
       <c r="H30">
-        <v>0.2802279485471626</v>
+        <v>0.001070491483357535</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.868962017481255</v>
+        <v>-1.531511925312464</v>
       </c>
       <c r="C31">
-        <v>1.608982439603561</v>
+        <v>1.191372955876814</v>
       </c>
       <c r="D31">
-        <v>0.8453250847526508</v>
+        <v>1.620864851212743</v>
       </c>
       <c r="E31">
-        <v>0.2112213471863112</v>
+        <v>0.2051881835962927</v>
       </c>
       <c r="F31">
-        <v>0.2361552756750873</v>
+        <v>0.6910003572761897</v>
       </c>
       <c r="G31">
-        <v>-1.136473119721629</v>
+        <v>-0.1889372090820782</v>
       </c>
       <c r="H31">
-        <v>-0.3152789401966103</v>
+        <v>-0.07181617120884004</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.8372573721453213</v>
+        <v>-0.02738595257403059</v>
       </c>
       <c r="C32">
-        <v>0.8533953371510195</v>
+        <v>0.02263732619604356</v>
       </c>
       <c r="D32">
-        <v>0.7022728772430971</v>
+        <v>0.03067304394157546</v>
       </c>
       <c r="E32">
-        <v>0.2493380680444011</v>
+        <v>0.01698456296100921</v>
       </c>
       <c r="F32">
-        <v>0.5259218587299421</v>
+        <v>0.01346751190336525</v>
       </c>
       <c r="G32">
-        <v>-0.3427192869290171</v>
+        <v>-0.006372786500427595</v>
       </c>
       <c r="H32">
-        <v>0.6265650821279485</v>
+        <v>0.01825233308155394</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.582919945324807</v>
+        <v>-0.002166096982330005</v>
       </c>
       <c r="C33">
-        <v>0.540367076476999</v>
+        <v>0.002723532973106889</v>
       </c>
       <c r="D33">
-        <v>0.443302038753788</v>
+        <v>0.002203849410484778</v>
       </c>
       <c r="E33">
-        <v>0.4101756486574291</v>
+        <v>0.002047310843719963</v>
       </c>
       <c r="F33">
-        <v>0.460503701113238</v>
+        <v>0.001451168997841118</v>
       </c>
       <c r="G33">
-        <v>-0.1619175766868602</v>
+        <v>-0.0006719053147982431</v>
       </c>
       <c r="H33">
-        <v>0.2933770781098098</v>
+        <v>0.0001554880689970926</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.5346305024137198</v>
+        <v>-0.002806441983815993</v>
       </c>
       <c r="C34">
-        <v>0.5393096156887648</v>
+        <v>0.00273384482828956</v>
       </c>
       <c r="D34">
-        <v>0.4965448380928824</v>
+        <v>0.003120290901901867</v>
       </c>
       <c r="E34">
-        <v>0.4252149119125337</v>
+        <v>0.001824021177088227</v>
       </c>
       <c r="F34">
-        <v>0.2925489317081484</v>
+        <v>0.00187933136124722</v>
       </c>
       <c r="G34">
-        <v>-0.1375635230832381</v>
+        <v>-0.0006714739447789397</v>
       </c>
       <c r="H34">
-        <v>0.2188964685781665</v>
+        <v>0.0004536389391330148</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.003105691109359847</v>
+        <v>-0.7150571344461173</v>
       </c>
       <c r="C35">
-        <v>0.002781839957609417</v>
+        <v>0.6409314841390837</v>
       </c>
       <c r="D35">
-        <v>0.003387200204755394</v>
+        <v>0.5092563532676868</v>
       </c>
       <c r="E35">
-        <v>0.002199447872432596</v>
+        <v>0.3969871010566555</v>
       </c>
       <c r="F35">
-        <v>0.001940849076153624</v>
+        <v>0.3900055922857631</v>
       </c>
       <c r="G35">
-        <v>-0.0003208401796193747</v>
+        <v>-0.1070820960122188</v>
       </c>
       <c r="H35">
-        <v>0.0006270823856960034</v>
+        <v>0.3562874113966493</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.4055378736173979</v>
+        <v>-0.4549161341520538</v>
       </c>
       <c r="C36">
-        <v>0.5413371487222338</v>
+        <v>0.4734775333317282</v>
       </c>
       <c r="D36">
-        <v>0.2416317958339398</v>
+        <v>0.3926566268652188</v>
       </c>
       <c r="E36">
-        <v>0.3345874681386989</v>
+        <v>0.2373585691703006</v>
       </c>
       <c r="F36">
-        <v>0.2388885545614722</v>
+        <v>0.2465783795319842</v>
       </c>
       <c r="G36">
-        <v>-0.1103007531305468</v>
+        <v>-0.1626930327331943</v>
       </c>
       <c r="H36">
-        <v>0.1633868838200541</v>
+        <v>0.1956014824387634</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.038946263087184</v>
+        <v>-0.8225482354088437</v>
       </c>
       <c r="C37">
-        <v>1.311285412622988</v>
+        <v>0.5577356818229406</v>
       </c>
       <c r="D37">
-        <v>1.549034683117473</v>
+        <v>0.9475232872758892</v>
       </c>
       <c r="E37">
-        <v>-0.07406827353150905</v>
+        <v>0.340808511466241</v>
       </c>
       <c r="F37">
-        <v>-0.04344064770331764</v>
+        <v>0.2429341552202902</v>
       </c>
       <c r="G37">
-        <v>-0.5962388004963726</v>
+        <v>-0.07752522929360982</v>
       </c>
       <c r="H37">
-        <v>0.1110142083182714</v>
+        <v>0.06813006034731184</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.002603462671731495</v>
+        <v>-1.410868759728489</v>
       </c>
       <c r="C38">
-        <v>0.002903860201061461</v>
+        <v>1.738397039269121</v>
       </c>
       <c r="D38">
-        <v>0.002498684128550737</v>
+        <v>1.207815749119528</v>
       </c>
       <c r="E38">
-        <v>0.001914287859552771</v>
+        <v>0.1959667225723123</v>
       </c>
       <c r="F38">
-        <v>0.002323890946552595</v>
+        <v>0.1074201451720855</v>
       </c>
       <c r="G38">
-        <v>-0.0003221040917857786</v>
+        <v>-0.3473228234824804</v>
       </c>
       <c r="H38">
-        <v>0.0002872001668226698</v>
+        <v>0.05966582464348748</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5507204083776206</v>
+        <v>-0.003439522676812382</v>
       </c>
       <c r="C39">
-        <v>0.9961282142918866</v>
+        <v>0.002963961092589648</v>
       </c>
       <c r="D39">
-        <v>0.682255357556967</v>
+        <v>0.003475505525425859</v>
       </c>
       <c r="E39">
-        <v>0.2169528596833042</v>
+        <v>0.00187777520181937</v>
       </c>
       <c r="F39">
-        <v>0.04189595909082987</v>
+        <v>0.002307267157728094</v>
       </c>
       <c r="G39">
-        <v>-0.5456633497089726</v>
+        <v>-0.000671074037706994</v>
       </c>
       <c r="H39">
-        <v>0.4363127682806573</v>
+        <v>0.0003533991167377627</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.3139130962628726</v>
+        <v>-0.9519608401454935</v>
       </c>
       <c r="C40">
-        <v>0.4829519616229882</v>
+        <v>1.251723002615094</v>
       </c>
       <c r="D40">
-        <v>0.4619727007693543</v>
+        <v>0.6007776691085237</v>
       </c>
       <c r="E40">
-        <v>0.2471906355558005</v>
+        <v>0.4197445766538893</v>
       </c>
       <c r="F40">
-        <v>0.3318258742973456</v>
+        <v>0.1409661830992265</v>
       </c>
       <c r="G40">
-        <v>-0.2312424800353384</v>
+        <v>-0.5540478921965604</v>
       </c>
       <c r="H40">
-        <v>0.1822771491530808</v>
+        <v>0.7035329989631085</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.9982394745299356</v>
+        <v>-0.003129968966128312</v>
       </c>
       <c r="C41">
-        <v>0.579491192939143</v>
+        <v>0.003186051712511738</v>
       </c>
       <c r="D41">
-        <v>0.7973141081135438</v>
+        <v>0.002569794277294406</v>
       </c>
       <c r="E41">
-        <v>0.7792011797936986</v>
+        <v>0.002493176591605323</v>
       </c>
       <c r="F41">
-        <v>0.9138192300035337</v>
+        <v>0.001596428762071355</v>
       </c>
       <c r="G41">
-        <v>-0.5894579950713625</v>
+        <v>-0.0006735771236782172</v>
       </c>
       <c r="H41">
-        <v>0.74159144246509</v>
+        <v>0.00124875097986164</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1837080278072634</v>
+        <v>-0.8659770255659723</v>
       </c>
       <c r="C42">
-        <v>0.1377571265041937</v>
+        <v>0.8894741121937475</v>
       </c>
       <c r="D42">
-        <v>0.2563997364934328</v>
+        <v>0.7843415048913155</v>
       </c>
       <c r="E42">
-        <v>0.1100749133867598</v>
+        <v>0.548837964437497</v>
       </c>
       <c r="F42">
-        <v>0.05863728831995348</v>
+        <v>0.1086256992768248</v>
       </c>
       <c r="G42">
-        <v>-0.02596845633232515</v>
+        <v>-0.3138391655063791</v>
       </c>
       <c r="H42">
-        <v>0.09280365857672464</v>
+        <v>-0.04126355577211004</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.122964396001292</v>
+        <v>-0.1358081517402027</v>
       </c>
       <c r="C43">
-        <v>1.013159237754162</v>
+        <v>0.1756808096506974</v>
       </c>
       <c r="D43">
-        <v>1.132920069473184</v>
+        <v>0.1812664245348331</v>
       </c>
       <c r="E43">
-        <v>0.6219749707669489</v>
+        <v>0.07896778353117534</v>
       </c>
       <c r="F43">
-        <v>0.3766017571717155</v>
+        <v>0.06409170179470047</v>
       </c>
       <c r="G43">
-        <v>-0.8069860648656135</v>
+        <v>-0.04313846437857922</v>
       </c>
       <c r="H43">
-        <v>0.8937787707647895</v>
+        <v>0.0391478416207671</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.02164815417983145</v>
+        <v>-0.003476843641376123</v>
       </c>
       <c r="C44">
-        <v>0.0209827539959115</v>
+        <v>0.002422430574133793</v>
       </c>
       <c r="D44">
-        <v>0.02512260886892769</v>
+        <v>0.003538471190156501</v>
       </c>
       <c r="E44">
-        <v>0.02081246227091656</v>
+        <v>0.00301326062236139</v>
       </c>
       <c r="F44">
-        <v>0.01172906805389816</v>
+        <v>0.001641366581940094</v>
       </c>
       <c r="G44">
-        <v>-0.003230774371712443</v>
+        <v>-0.0006718088616970958</v>
       </c>
       <c r="H44">
-        <v>0.01612771744074122</v>
+        <v>6.379452689610459E-05</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.9612125660762556</v>
+        <v>-1.025155663253545</v>
       </c>
       <c r="C45">
-        <v>1.119767156774249</v>
+        <v>0.947917745204092</v>
       </c>
       <c r="D45">
-        <v>1.162869449579404</v>
+        <v>0.9865950772752274</v>
       </c>
       <c r="E45">
-        <v>0.2666379062761631</v>
+        <v>0.1605266652365139</v>
       </c>
       <c r="F45">
-        <v>0.3990558740468274</v>
+        <v>0.341947438609286</v>
       </c>
       <c r="G45">
-        <v>-0.5592062595169565</v>
+        <v>-0.2620960438833564</v>
       </c>
       <c r="H45">
-        <v>-0.2430141137827182</v>
+        <v>0.3475583549431546</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-2.013181589150797</v>
+        <v>-0.6138733116441686</v>
       </c>
       <c r="C46">
-        <v>2.521225647989222</v>
+        <v>0.6633889378937901</v>
       </c>
       <c r="D46">
-        <v>1.776981214730652</v>
+        <v>0.6264518410127999</v>
       </c>
       <c r="E46">
-        <v>0.324462391883999</v>
+        <v>0.3172020344582047</v>
       </c>
       <c r="F46">
-        <v>0.1797686913691578</v>
+        <v>0.2020581837224793</v>
       </c>
       <c r="G46">
-        <v>-1.348726949456468</v>
+        <v>-0.2454917460313319</v>
       </c>
       <c r="H46">
-        <v>-0.4006554841851319</v>
+        <v>0.449033949897864</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.589271322048013</v>
+        <v>-0.9066746218644284</v>
       </c>
       <c r="C47">
-        <v>0.5685627704493781</v>
+        <v>1.605208402117844</v>
       </c>
       <c r="D47">
-        <v>0.6414892008207678</v>
+        <v>0.4328873054940559</v>
       </c>
       <c r="E47">
-        <v>0.2964933193711969</v>
+        <v>-0.04674144551414871</v>
       </c>
       <c r="F47">
-        <v>0.3199274221449138</v>
+        <v>0.02299930093072056</v>
       </c>
       <c r="G47">
-        <v>-0.1650806995138797</v>
+        <v>-0.5799668877210242</v>
       </c>
       <c r="H47">
-        <v>0.1946154855804511</v>
+        <v>0.2047993475203889</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.003049872807015639</v>
+        <v>-0.5680660544399962</v>
       </c>
       <c r="C48">
-        <v>0.002575878565182323</v>
+        <v>0.4315874944269488</v>
       </c>
       <c r="D48">
-        <v>0.003489849036698968</v>
+        <v>0.5884985486900433</v>
       </c>
       <c r="E48">
-        <v>0.002155141221287087</v>
+        <v>0.3762515193982394</v>
       </c>
       <c r="F48">
-        <v>0.001987743648307981</v>
+        <v>0.2381556896810566</v>
       </c>
       <c r="G48">
-        <v>-0.0003225222699308262</v>
+        <v>-0.1103066702487885</v>
       </c>
       <c r="H48">
-        <v>0.0005975816565634722</v>
+        <v>0.04411107604186414</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.216542708356231</v>
+        <v>-0.002311399211260222</v>
       </c>
       <c r="C49">
-        <v>0.7044171101941473</v>
+        <v>0.002455694517489287</v>
       </c>
       <c r="D49">
-        <v>1.760316827079941</v>
+        <v>0.00253622619923791</v>
       </c>
       <c r="E49">
-        <v>0.2505159051358335</v>
+        <v>0.00192724343243357</v>
       </c>
       <c r="F49">
-        <v>0.161471502819016</v>
+        <v>0.001872359486437408</v>
       </c>
       <c r="G49">
-        <v>-0.5068795779854157</v>
+        <v>-0.0006735567917732978</v>
       </c>
       <c r="H49">
-        <v>0.1830791180747068</v>
+        <v>0.000477412849531347</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.002779282694426036</v>
+        <v>-0.7128705918110835</v>
       </c>
       <c r="C50">
-        <v>0.002577331449006955</v>
+        <v>0.6377464445668839</v>
       </c>
       <c r="D50">
-        <v>0.003026311960303742</v>
+        <v>0.5769347181252522</v>
       </c>
       <c r="E50">
-        <v>0.001984702567938995</v>
+        <v>0.4881873488145878</v>
       </c>
       <c r="F50">
-        <v>0.001637154324172109</v>
+        <v>0.4345118646551001</v>
       </c>
       <c r="G50">
-        <v>-0.0003209909261857844</v>
+        <v>-0.2486991120925405</v>
       </c>
       <c r="H50">
-        <v>0.001701622367796505</v>
+        <v>0.476650599997531</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.401082897485338</v>
+        <v>-0.4540370740580065</v>
       </c>
       <c r="C51">
-        <v>0.439188844066963</v>
+        <v>0.3655029108285434</v>
       </c>
       <c r="D51">
-        <v>0.3966459636668712</v>
+        <v>0.4929228509884944</v>
       </c>
       <c r="E51">
-        <v>0.2469524397259797</v>
+        <v>0.3226764950669855</v>
       </c>
       <c r="F51">
-        <v>0.2082817972036826</v>
+        <v>0.2441784584633881</v>
       </c>
       <c r="G51">
-        <v>-0.09569498016476978</v>
+        <v>-0.08529706538747105</v>
       </c>
       <c r="H51">
-        <v>0.3300569536575282</v>
+        <v>0.03700979969664967</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.8999111519407911</v>
+        <v>-1.186393804466936</v>
       </c>
       <c r="C52">
-        <v>0.9955880678873592</v>
+        <v>0.7813818324654876</v>
       </c>
       <c r="D52">
-        <v>1.17637137782313</v>
+        <v>1.148982449647544</v>
       </c>
       <c r="E52">
-        <v>0.1946372259156919</v>
+        <v>0.4534306163770135</v>
       </c>
       <c r="F52">
-        <v>0.09076225279411726</v>
+        <v>0.5794905441867549</v>
       </c>
       <c r="G52">
-        <v>-0.2409972478788544</v>
+        <v>-0.3290484350003973</v>
       </c>
       <c r="H52">
-        <v>0.04086594353015405</v>
+        <v>0.1134417154329249</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.01880494993130102</v>
+        <v>-0.2126570251068257</v>
       </c>
       <c r="C53">
-        <v>0.02476188232681771</v>
+        <v>0.178114654990882</v>
       </c>
       <c r="D53">
-        <v>0.02341235739684143</v>
+        <v>0.2356133845078439</v>
       </c>
       <c r="E53">
-        <v>0.01499625355124644</v>
+        <v>0.1153464109493974</v>
       </c>
       <c r="F53">
-        <v>0.01605815603354153</v>
+        <v>0.1346510717252073</v>
       </c>
       <c r="G53">
-        <v>-0.003182881822918087</v>
+        <v>-0.04160497531708298</v>
       </c>
       <c r="H53">
-        <v>0.004492778258575534</v>
+        <v>0.04897985418655594</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.218327186786947</v>
+        <v>-0.6254913251345389</v>
       </c>
       <c r="C54">
-        <v>1.20122995639128</v>
+        <v>0.8469274722327692</v>
       </c>
       <c r="D54">
-        <v>1.394161052216353</v>
+        <v>0.3795905644446123</v>
       </c>
       <c r="E54">
-        <v>0.7722949806329754</v>
+        <v>0.2523465768381969</v>
       </c>
       <c r="F54">
-        <v>0.3288794455839947</v>
+        <v>0.1591455996152038</v>
       </c>
       <c r="G54">
-        <v>-0.790252889744676</v>
+        <v>-0.2619977781929209</v>
       </c>
       <c r="H54">
-        <v>-0.3882925234512489</v>
+        <v>0.2704275339134385</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.02150086075580524</v>
+        <v>-0.002630017105416505</v>
       </c>
       <c r="C55">
-        <v>0.02386567020683456</v>
+        <v>0.002581943994083259</v>
       </c>
       <c r="D55">
-        <v>0.0228959750706349</v>
+        <v>0.003200319577771381</v>
       </c>
       <c r="E55">
-        <v>0.02279253565025237</v>
+        <v>0.00169430983503373</v>
       </c>
       <c r="F55">
-        <v>0.01217538713551872</v>
+        <v>0.001623102436539848</v>
       </c>
       <c r="G55">
-        <v>-0.003202482489862088</v>
+        <v>-0.0006720032522539216</v>
       </c>
       <c r="H55">
-        <v>0.01150900055759842</v>
+        <v>0.0004829607323446679</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.4094718894822046</v>
+        <v>-0.03151726387257871</v>
       </c>
       <c r="C56">
-        <v>0.376164548716764</v>
+        <v>0.02304637389276961</v>
       </c>
       <c r="D56">
-        <v>0.686688875498174</v>
+        <v>0.03084020362076888</v>
       </c>
       <c r="E56">
-        <v>0.1809925103078395</v>
+        <v>0.02738616409065034</v>
       </c>
       <c r="F56">
-        <v>0.2505973919742969</v>
+        <v>0.01861655715663598</v>
       </c>
       <c r="G56">
-        <v>-0.2131590084362315</v>
+        <v>-0.006488751838239689</v>
       </c>
       <c r="H56">
-        <v>0.1958871780637385</v>
+        <v>0.003465081273288521</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.002176421731434384</v>
+        <v>-0.003619694094603644</v>
       </c>
       <c r="C57">
-        <v>0.002498692646786199</v>
+        <v>0.002646082844168654</v>
       </c>
       <c r="D57">
-        <v>0.002527227692280267</v>
+        <v>0.004013931141221715</v>
       </c>
       <c r="E57">
-        <v>0.002056885361445306</v>
+        <v>0.002544789971925602</v>
       </c>
       <c r="F57">
-        <v>0.001647948227840094</v>
+        <v>0.0008481569668184767</v>
       </c>
       <c r="G57">
-        <v>-0.000321516925931074</v>
+        <v>-0.0006694124637119761</v>
       </c>
       <c r="H57">
-        <v>0.0006386053731289555</v>
+        <v>0.001046501355184473</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.003626605097797712</v>
+        <v>-1.214948043953938</v>
       </c>
       <c r="C58">
-        <v>0.002689369365877692</v>
+        <v>0.8418508484520995</v>
       </c>
       <c r="D58">
-        <v>0.003764028436107504</v>
+        <v>1.040405450509037</v>
       </c>
       <c r="E58">
-        <v>0.002567994552312994</v>
+        <v>0.4705369230437982</v>
       </c>
       <c r="F58">
-        <v>0.002176097839262993</v>
+        <v>0.3185894564462344</v>
       </c>
       <c r="G58">
-        <v>-0.0003220487030199588</v>
+        <v>-0.09392295148632032</v>
       </c>
       <c r="H58">
-        <v>0.00031854905775381</v>
+        <v>0.7185679765535486</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.8883875458556694</v>
+        <v>-0.6351851455152097</v>
       </c>
       <c r="C59">
-        <v>0.9165998159450064</v>
+        <v>0.6469232100450427</v>
       </c>
       <c r="D59">
-        <v>0.9372862806336378</v>
+        <v>0.6334850236030261</v>
       </c>
       <c r="E59">
-        <v>0.3174233202014405</v>
+        <v>0.2519078870061453</v>
       </c>
       <c r="F59">
-        <v>0.1409282410823937</v>
+        <v>0.2735226607675895</v>
       </c>
       <c r="G59">
-        <v>-0.1184344209136987</v>
+        <v>-0.183316201292734</v>
       </c>
       <c r="H59">
-        <v>0.3672830838076862</v>
+        <v>-0.1301821198608476</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4637849158742364</v>
+        <v>-0.7190162296829824</v>
       </c>
       <c r="C60">
-        <v>0.7786499031205911</v>
+        <v>1.419184203400678</v>
       </c>
       <c r="D60">
-        <v>0.4361322111577935</v>
+        <v>0.4671947148366692</v>
       </c>
       <c r="E60">
-        <v>0.5678460330647708</v>
+        <v>0.3364006736648902</v>
       </c>
       <c r="F60">
-        <v>0.3166056828234045</v>
+        <v>-0.1254760651963308</v>
       </c>
       <c r="G60">
-        <v>-0.5679230575807193</v>
+        <v>-0.5552146998615194</v>
       </c>
       <c r="H60">
-        <v>0.2920449092975587</v>
+        <v>0.1688162505644885</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.02320080924898567</v>
+        <v>-0.5225614570875576</v>
       </c>
       <c r="C61">
-        <v>0.02709235011453636</v>
+        <v>0.5507976503315966</v>
       </c>
       <c r="D61">
-        <v>0.02715844648558892</v>
+        <v>0.3916244996394863</v>
       </c>
       <c r="E61">
-        <v>0.01577842499309339</v>
+        <v>0.2612455519440888</v>
       </c>
       <c r="F61">
-        <v>0.01524393788200416</v>
+        <v>0.3048029222824533</v>
       </c>
       <c r="G61">
-        <v>-0.003123618890662536</v>
+        <v>-0.1073730475650377</v>
       </c>
       <c r="H61">
-        <v>0.008523097305775764</v>
+        <v>0.1618547853773477</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.02523409966736545</v>
+        <v>-0.02055498208952632</v>
       </c>
       <c r="C62">
-        <v>0.02549308728189616</v>
+        <v>0.02315710549581933</v>
       </c>
       <c r="D62">
-        <v>0.0305563672887352</v>
+        <v>0.02682912066132613</v>
       </c>
       <c r="E62">
-        <v>0.02021875553497803</v>
+        <v>0.01317713310886263</v>
       </c>
       <c r="F62">
-        <v>0.01366850916405783</v>
+        <v>0.01253328222584061</v>
       </c>
       <c r="G62">
-        <v>-0.00313281595851218</v>
+        <v>-0.006383786356637318</v>
       </c>
       <c r="H62">
-        <v>0.004529362169869658</v>
+        <v>0.01023197641784315</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.580070675766128</v>
+        <v>-1.222340367818021</v>
       </c>
       <c r="C63">
-        <v>1.558973859952951</v>
+        <v>0.9123207806669984</v>
       </c>
       <c r="D63">
-        <v>1.125846970169106</v>
+        <v>1.606686031564203</v>
       </c>
       <c r="E63">
-        <v>0.6265978109340203</v>
+        <v>0.1702570446982409</v>
       </c>
       <c r="F63">
-        <v>0.3398806908504354</v>
+        <v>0.3441379010131744</v>
       </c>
       <c r="G63">
-        <v>-0.09232807922790653</v>
+        <v>-0.09065306313842718</v>
       </c>
       <c r="H63">
-        <v>0.1662147671531746</v>
+        <v>0.1610516829317939</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.9159948095408</v>
+        <v>-0.003438917391254097</v>
       </c>
       <c r="C64">
-        <v>1.051398813050263</v>
+        <v>0.003568204185143857</v>
       </c>
       <c r="D64">
-        <v>1.111529686873336</v>
+        <v>0.002926928351727927</v>
       </c>
       <c r="E64">
-        <v>0.3930039571385595</v>
+        <v>0.002003699075686033</v>
       </c>
       <c r="F64">
-        <v>0.3488759074178814</v>
+        <v>0.002064987705100727</v>
       </c>
       <c r="G64">
-        <v>-0.6552093961290073</v>
+        <v>-0.0006704162040635589</v>
       </c>
       <c r="H64">
-        <v>-0.5258284209947709</v>
+        <v>0.0004955245137836735</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.01977176797880859</v>
+        <v>-0.03169426915917968</v>
       </c>
       <c r="C65">
-        <v>0.02381571347752355</v>
+        <v>0.03015821668589621</v>
       </c>
       <c r="D65">
-        <v>0.02312250486732273</v>
+        <v>0.02878592395722152</v>
       </c>
       <c r="E65">
-        <v>0.01900886015166358</v>
+        <v>0.02186271486631321</v>
       </c>
       <c r="F65">
-        <v>0.01215898197856973</v>
+        <v>0.01868192430064653</v>
       </c>
       <c r="G65">
-        <v>-0.003188337487005266</v>
+        <v>-0.006494665626170326</v>
       </c>
       <c r="H65">
-        <v>0.01186285809856916</v>
+        <v>0.004860060953314061</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.02726795259436435</v>
+        <v>-1.016498950925174</v>
       </c>
       <c r="C66">
-        <v>0.02548121536710115</v>
+        <v>0.9699659096135288</v>
       </c>
       <c r="D66">
-        <v>0.02836099947833523</v>
+        <v>1.076046489422227</v>
       </c>
       <c r="E66">
-        <v>0.02723018675531736</v>
+        <v>0.08428536080348147</v>
       </c>
       <c r="F66">
-        <v>0.01048157283485083</v>
+        <v>0.3116256179522715</v>
       </c>
       <c r="G66">
-        <v>-0.003177658358303449</v>
+        <v>-0.1808834848667671</v>
       </c>
       <c r="H66">
-        <v>0.007568628542853267</v>
+        <v>0.4908259599830321</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.7328271093638269</v>
+        <v>-0.4930830786440669</v>
       </c>
       <c r="C67">
-        <v>0.8352517179032856</v>
+        <v>0.4147675509654756</v>
       </c>
       <c r="D67">
-        <v>0.5333123758841727</v>
+        <v>0.5546917849626574</v>
       </c>
       <c r="E67">
-        <v>0.4124186824474782</v>
+        <v>0.2404216334137461</v>
       </c>
       <c r="F67">
-        <v>0.5856014911685499</v>
+        <v>0.2795757466215277</v>
       </c>
       <c r="G67">
-        <v>-0.3875524812385407</v>
+        <v>-0.1451169807655898</v>
       </c>
       <c r="H67">
-        <v>0.4918130552113028</v>
+        <v>0.04056798188161538</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.02357769355471813</v>
+        <v>-0.5918214610585509</v>
       </c>
       <c r="C68">
-        <v>0.02404201629349532</v>
+        <v>0.8173962529220972</v>
       </c>
       <c r="D68">
-        <v>0.03200934325073803</v>
+        <v>0.4867108322937093</v>
       </c>
       <c r="E68">
-        <v>0.01332947296151999</v>
+        <v>0.3967137487958705</v>
       </c>
       <c r="F68">
-        <v>0.01677282190461296</v>
+        <v>0.2692712497649443</v>
       </c>
       <c r="G68">
-        <v>-0.003150108364673717</v>
+        <v>-0.3514399666313099</v>
       </c>
       <c r="H68">
-        <v>-0.0001027467585121347</v>
+        <v>0.2312491528796451</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4638341001352324</v>
+        <v>-0.8534927377374409</v>
       </c>
       <c r="C69">
-        <v>0.7107443787620363</v>
+        <v>0.8547517956700045</v>
       </c>
       <c r="D69">
-        <v>0.3924230201547123</v>
+        <v>0.6017617023278249</v>
       </c>
       <c r="E69">
-        <v>0.2945263695261446</v>
+        <v>0.5774617944093067</v>
       </c>
       <c r="F69">
-        <v>0.20118909705287</v>
+        <v>0.3838896868607818</v>
       </c>
       <c r="G69">
-        <v>-0.2274265205793787</v>
+        <v>-0.4296755617900948</v>
       </c>
       <c r="H69">
-        <v>0.2171165714258415</v>
+        <v>0.2922174992200058</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.6957000428094918</v>
+        <v>-0.7721482655924297</v>
       </c>
       <c r="C70">
-        <v>1.367275696089212</v>
+        <v>0.7235121403223898</v>
       </c>
       <c r="D70">
-        <v>0.4603315932999827</v>
+        <v>0.7864001927527967</v>
       </c>
       <c r="E70">
-        <v>0.4488262579189398</v>
+        <v>0.2218870291929014</v>
       </c>
       <c r="F70">
-        <v>-0.06566058391255457</v>
+        <v>0.2410700799315375</v>
       </c>
       <c r="G70">
-        <v>-0.8421235161572111</v>
+        <v>-0.1854220214923274</v>
       </c>
       <c r="H70">
-        <v>0.6936643172521089</v>
+        <v>0.09651549594909872</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.7716669092183654</v>
+        <v>-0.1989021146224176</v>
       </c>
       <c r="C71">
-        <v>1.60876871656119</v>
+        <v>0.1530559437868886</v>
       </c>
       <c r="D71">
-        <v>0.3092156987353636</v>
+        <v>0.2213879229709833</v>
       </c>
       <c r="E71">
-        <v>0.6376379102747073</v>
+        <v>0.1289560413563803</v>
       </c>
       <c r="F71">
-        <v>-0.07812153456058878</v>
+        <v>0.0901076888401544</v>
       </c>
       <c r="G71">
-        <v>-0.8265269994366449</v>
+        <v>-0.04626478582742694</v>
       </c>
       <c r="H71">
-        <v>0.145211620240998</v>
+        <v>0.1109091912096945</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.4231420812364079</v>
+        <v>-0.6136920594018727</v>
       </c>
       <c r="C72">
-        <v>0.3158628572318884</v>
+        <v>0.5994058348577203</v>
       </c>
       <c r="D72">
-        <v>0.4109733338086715</v>
+        <v>0.6968628120387771</v>
       </c>
       <c r="E72">
-        <v>0.4011082300405519</v>
+        <v>0.2803494276612002</v>
       </c>
       <c r="F72">
-        <v>0.2050144256540833</v>
+        <v>0.1073784363959805</v>
       </c>
       <c r="G72">
-        <v>-0.0602783108160078</v>
+        <v>-0.2028373222529754</v>
       </c>
       <c r="H72">
-        <v>0.2904091712707584</v>
+        <v>0.2450002708513179</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.5155859707685864</v>
+        <v>-0.358390926300947</v>
       </c>
       <c r="C73">
-        <v>0.8581640608323426</v>
+        <v>0.3567317041989668</v>
       </c>
       <c r="D73">
-        <v>0.609037043247055</v>
+        <v>0.4307877558421581</v>
       </c>
       <c r="E73">
-        <v>0.4998597787205808</v>
+        <v>0.2291883844101923</v>
       </c>
       <c r="F73">
-        <v>0.1168944128721538</v>
+        <v>0.1551038190680701</v>
       </c>
       <c r="G73">
-        <v>-0.4382451089612184</v>
+        <v>-0.1343856073011025</v>
       </c>
       <c r="H73">
-        <v>0.1160581693885206</v>
+        <v>0.1491183642918472</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.5657734741421298</v>
+        <v>-0.579530671848004</v>
       </c>
       <c r="C74">
-        <v>0.5451167949154221</v>
+        <v>0.6970944586123559</v>
       </c>
       <c r="D74">
-        <v>0.6787547832125708</v>
+        <v>0.2883271812611708</v>
       </c>
       <c r="E74">
-        <v>0.2707448970011218</v>
+        <v>0.4302578584076647</v>
       </c>
       <c r="F74">
-        <v>0.2292423411271756</v>
+        <v>0.2704147809692179</v>
       </c>
       <c r="G74">
-        <v>-0.2193534966364077</v>
+        <v>-0.1888520692489102</v>
       </c>
       <c r="H74">
-        <v>0.3027898941071863</v>
+        <v>0.1757366127341123</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1846618895912936</v>
+        <v>-0.01872717765473212</v>
       </c>
       <c r="C75">
-        <v>0.1804386204046942</v>
+        <v>0.02423306140060607</v>
       </c>
       <c r="D75">
-        <v>0.1731414233206466</v>
+        <v>0.01936633544774673</v>
       </c>
       <c r="E75">
-        <v>0.162079668506762</v>
+        <v>0.01859595782098681</v>
       </c>
       <c r="F75">
-        <v>0.1082175986427466</v>
+        <v>0.01430620076510891</v>
       </c>
       <c r="G75">
-        <v>-0.02798843158169953</v>
+        <v>-0.006528721272152971</v>
       </c>
       <c r="H75">
-        <v>0.09834137987268339</v>
+        <v>0.005062645698386953</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.4495612431996648</v>
+        <v>-0.003292487750844362</v>
       </c>
       <c r="C76">
-        <v>0.485493092617103</v>
+        <v>0.002319217346071874</v>
       </c>
       <c r="D76">
-        <v>0.2981909433829718</v>
+        <v>0.002945914195421194</v>
       </c>
       <c r="E76">
-        <v>0.3856356239259858</v>
+        <v>0.003037081836031246</v>
       </c>
       <c r="F76">
-        <v>0.2571644523599406</v>
+        <v>0.002143619627180532</v>
       </c>
       <c r="G76">
-        <v>-0.09311553476756475</v>
+        <v>-0.0006728959494565804</v>
       </c>
       <c r="H76">
-        <v>0.118552393138308</v>
+        <v>0.0007977947005192345</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.3742409369036573</v>
+        <v>-0.002564841303767739</v>
       </c>
       <c r="C77">
-        <v>0.4553389518216924</v>
+        <v>0.002232199135835798</v>
       </c>
       <c r="D77">
-        <v>0.461445371294664</v>
+        <v>0.002770233542138071</v>
       </c>
       <c r="E77">
-        <v>0.3404259128681249</v>
+        <v>0.0024319412695266</v>
       </c>
       <c r="F77">
-        <v>0.2797146890486211</v>
+        <v>0.001497512251473258</v>
       </c>
       <c r="G77">
-        <v>-0.19592471661182</v>
+        <v>-0.0006733718904959095</v>
       </c>
       <c r="H77">
-        <v>0.1820506002223947</v>
+        <v>0.001137564183464112</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.6952711141986148</v>
+        <v>-0.6493790576351032</v>
       </c>
       <c r="C78">
-        <v>1.222221582001097</v>
+        <v>0.644362956770644</v>
       </c>
       <c r="D78">
-        <v>0.7197188868948473</v>
+        <v>0.3534989922638781</v>
       </c>
       <c r="E78">
-        <v>0.3784831573912884</v>
+        <v>0.4102982509564228</v>
       </c>
       <c r="F78">
-        <v>0.3858306778425244</v>
+        <v>0.3128026991810089</v>
       </c>
       <c r="G78">
-        <v>-0.7801859201643113</v>
+        <v>-0.09299655013103354</v>
       </c>
       <c r="H78">
-        <v>0.3939078873556973</v>
+        <v>0.4690960659952898</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.02098890347176545</v>
+        <v>-0.00367924526195261</v>
       </c>
       <c r="C79">
-        <v>0.02098488345439211</v>
+        <v>0.003327422450200259</v>
       </c>
       <c r="D79">
-        <v>0.02918517264638694</v>
+        <v>0.003139807316766093</v>
       </c>
       <c r="E79">
-        <v>0.01550584648406277</v>
+        <v>0.00259800896645604</v>
       </c>
       <c r="F79">
-        <v>0.01657927092333659</v>
+        <v>0.001877953870161457</v>
       </c>
       <c r="G79">
-        <v>-0.003176441193415742</v>
+        <v>-0.0006717735680419561</v>
       </c>
       <c r="H79">
-        <v>0.006058372236877801</v>
+        <v>0.0008577143646173637</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.02937142077284561</v>
+        <v>-0.9222930859358529</v>
       </c>
       <c r="C80">
-        <v>0.02765603615069221</v>
+        <v>0.769708910289558</v>
       </c>
       <c r="D80">
-        <v>0.02917929207316753</v>
+        <v>0.7806424034381936</v>
       </c>
       <c r="E80">
-        <v>0.0238552476700747</v>
+        <v>0.7119732134503346</v>
       </c>
       <c r="F80">
-        <v>0.01694224227287839</v>
+        <v>0.4669390688767473</v>
       </c>
       <c r="G80">
-        <v>-0.003238534895316849</v>
+        <v>-0.4284895380556306</v>
       </c>
       <c r="H80">
-        <v>0.008218928378914353</v>
+        <v>0.2997793449844009</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.5651286044806241</v>
+        <v>-0.2228944970478622</v>
       </c>
       <c r="C81">
-        <v>0.7258519402481969</v>
+        <v>0.1801540987892193</v>
       </c>
       <c r="D81">
-        <v>0.7297602233570459</v>
+        <v>0.2327272138283608</v>
       </c>
       <c r="E81">
-        <v>0.2998683737691247</v>
+        <v>0.1489255491760656</v>
       </c>
       <c r="F81">
-        <v>0.354670821096279</v>
+        <v>0.07579453626630779</v>
       </c>
       <c r="G81">
-        <v>-0.4232246056264886</v>
+        <v>-0.04454843388409799</v>
       </c>
       <c r="H81">
-        <v>0.3934240303044381</v>
+        <v>0.07789583010486828</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.6685672768715657</v>
+        <v>-0.7055446314526055</v>
       </c>
       <c r="C82">
-        <v>1.139529900509678</v>
+        <v>0.6035089409105333</v>
       </c>
       <c r="D82">
-        <v>0.4330071474574225</v>
+        <v>0.5668586322725113</v>
       </c>
       <c r="E82">
-        <v>0.5360472210265173</v>
+        <v>0.2744091706926116</v>
       </c>
       <c r="F82">
-        <v>0.2405309282461842</v>
+        <v>0.1804690265824863</v>
       </c>
       <c r="G82">
-        <v>-0.4957630871827633</v>
+        <v>-0.1665644090811091</v>
       </c>
       <c r="H82">
-        <v>0.2725504084998652</v>
+        <v>0.551706769997986</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.003068809321814092</v>
+        <v>-0.2055432699075877</v>
       </c>
       <c r="C83">
-        <v>0.002742678050987434</v>
+        <v>0.1747597487613171</v>
       </c>
       <c r="D83">
-        <v>0.003184332797371287</v>
+        <v>0.223291268971759</v>
       </c>
       <c r="E83">
-        <v>0.002715284803152234</v>
+        <v>0.1593846179436101</v>
       </c>
       <c r="F83">
-        <v>0.00148395182770621</v>
+        <v>0.08209748835800786</v>
       </c>
       <c r="G83">
-        <v>-0.0003218508426973672</v>
+        <v>-0.04379442897450835</v>
       </c>
       <c r="H83">
-        <v>0.0008253891177470434</v>
+        <v>0.02753401916197505</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.5670646290471193</v>
+        <v>-0.5791033644783447</v>
       </c>
       <c r="C84">
-        <v>1.049008331843755</v>
+        <v>0.6397350626026945</v>
       </c>
       <c r="D84">
-        <v>0.3339954602171264</v>
+        <v>0.354064334726901</v>
       </c>
       <c r="E84">
-        <v>0.4233933128588624</v>
+        <v>0.4622506468036068</v>
       </c>
       <c r="F84">
-        <v>0.1662835978968436</v>
+        <v>0.2803386038852954</v>
       </c>
       <c r="G84">
-        <v>-0.3262760563248256</v>
+        <v>-0.201684661867517</v>
       </c>
       <c r="H84">
-        <v>0.1039916151353627</v>
+        <v>0.1934216682984871</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.3698840925617687</v>
+        <v>-0.213849437106182</v>
       </c>
       <c r="C85">
-        <v>0.6487349516188595</v>
+        <v>0.1687404715850567</v>
       </c>
       <c r="D85">
-        <v>0.7044132802624864</v>
+        <v>0.225060124520103</v>
       </c>
       <c r="E85">
-        <v>0.2878831402698958</v>
+        <v>0.1280749970632772</v>
       </c>
       <c r="F85">
-        <v>0.5804865570756861</v>
+        <v>0.09000705591903745</v>
       </c>
       <c r="G85">
-        <v>-0.8762439775278388</v>
+        <v>-0.04728930077473363</v>
       </c>
       <c r="H85">
-        <v>0.20834522270769</v>
+        <v>0.1017352269153852</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.3604183820603396</v>
+        <v>-0.00288125863584341</v>
       </c>
       <c r="C86">
-        <v>0.6902434214567179</v>
+        <v>0.002244231271815468</v>
       </c>
       <c r="D86">
-        <v>0.6971074904920258</v>
+        <v>0.002831568895458983</v>
       </c>
       <c r="E86">
-        <v>0.2381299970575916</v>
+        <v>0.002995833516289316</v>
       </c>
       <c r="F86">
-        <v>0.2584408517233859</v>
+        <v>0.001626975064967033</v>
       </c>
       <c r="G86">
-        <v>-0.4988075176452939</v>
+        <v>-0.0006727079367575034</v>
       </c>
       <c r="H86">
-        <v>0.1947658025937331</v>
+        <v>0.0004961313850360251</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.002498210389111471</v>
+        <v>-0.5176773858030048</v>
       </c>
       <c r="C87">
-        <v>0.002311028172326105</v>
+        <v>0.4667671699977202</v>
       </c>
       <c r="D87">
-        <v>0.002875707332455611</v>
+        <v>0.5159990209259709</v>
       </c>
       <c r="E87">
-        <v>0.002693658779659388</v>
+        <v>0.381035307373049</v>
       </c>
       <c r="F87">
-        <v>0.001153368855580802</v>
+        <v>0.3305605336227945</v>
       </c>
       <c r="G87">
-        <v>-0.0003219719426647361</v>
+        <v>-0.2939565614312417</v>
       </c>
       <c r="H87">
-        <v>0.0007913719571721162</v>
+        <v>0.1171889910125067</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.7293795445845872</v>
+        <v>-0.0260393711298211</v>
       </c>
       <c r="C88">
-        <v>0.9467242741875821</v>
+        <v>0.02741326948858395</v>
       </c>
       <c r="D88">
-        <v>0.8992747275521469</v>
+        <v>0.0252359812041756</v>
       </c>
       <c r="E88">
-        <v>0.4396076243698768</v>
+        <v>0.01888932667557763</v>
       </c>
       <c r="F88">
-        <v>0.1710087219368046</v>
+        <v>0.01786713595190677</v>
       </c>
       <c r="G88">
-        <v>-0.5744781561176714</v>
+        <v>-0.006510844552149454</v>
       </c>
       <c r="H88">
-        <v>0.1376172508095862</v>
+        <v>0.008371440627645759</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.5167681991580032</v>
+        <v>-0.4845604764069262</v>
       </c>
       <c r="C89">
-        <v>0.8278613422337793</v>
+        <v>0.3994021431179973</v>
       </c>
       <c r="D89">
-        <v>0.5693104312280214</v>
+        <v>0.4947029502692594</v>
       </c>
       <c r="E89">
-        <v>0.3907094554608937</v>
+        <v>0.2857827681251856</v>
       </c>
       <c r="F89">
-        <v>0.2125673086236458</v>
+        <v>0.2969151758821302</v>
       </c>
       <c r="G89">
-        <v>-0.4322753780390765</v>
+        <v>-0.1043870087335466</v>
       </c>
       <c r="H89">
-        <v>0.2837112915320477</v>
+        <v>0.166949276872847</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.02602828738401175</v>
+        <v>-0.1581323691830448</v>
       </c>
       <c r="C90">
-        <v>0.02538584343420253</v>
+        <v>0.161301285484925</v>
       </c>
       <c r="D90">
-        <v>0.02636479056593169</v>
+        <v>0.149228508312259</v>
       </c>
       <c r="E90">
-        <v>0.02308724856720096</v>
+        <v>0.150113657223681</v>
       </c>
       <c r="F90">
-        <v>0.01787789672785921</v>
+        <v>0.09586084028087181</v>
       </c>
       <c r="G90">
-        <v>-0.003202270906708997</v>
+        <v>-0.04562799109136094</v>
       </c>
       <c r="H90">
-        <v>0.008253766271633644</v>
+        <v>0.08660213146406841</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7929364166575041</v>
+        <v>-0.003421115941187879</v>
       </c>
       <c r="C91">
-        <v>0.5642720423785365</v>
+        <v>0.003332172299324861</v>
       </c>
       <c r="D91">
-        <v>1.015072689178297</v>
+        <v>0.002660669983674944</v>
       </c>
       <c r="E91">
-        <v>0.3465510111759653</v>
+        <v>0.002669385598035332</v>
       </c>
       <c r="F91">
-        <v>0.6506608941973347</v>
+        <v>0.001926215124605549</v>
       </c>
       <c r="G91">
-        <v>-0.3666010038121454</v>
+        <v>-0.0006727987015008443</v>
       </c>
       <c r="H91">
-        <v>0.2031394256106729</v>
+        <v>0.0007989155830354016</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6298911820688415</v>
+        <v>-0.02155128098071621</v>
       </c>
       <c r="C92">
-        <v>0.5939728146766473</v>
+        <v>0.02614668003676456</v>
       </c>
       <c r="D92">
-        <v>0.7807446880832991</v>
+        <v>0.02429588029814675</v>
       </c>
       <c r="E92">
-        <v>0.5510357530121789</v>
+        <v>0.01861766630301185</v>
       </c>
       <c r="F92">
-        <v>0.6041351122957924</v>
+        <v>0.010682009238075</v>
       </c>
       <c r="G92">
-        <v>-0.6432538188502944</v>
+        <v>-0.006527971606555563</v>
       </c>
       <c r="H92">
-        <v>0.1766168579861467</v>
+        <v>0.005520648839736983</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.02194456037608103</v>
+        <v>-0.0265319546811328</v>
       </c>
       <c r="C93">
-        <v>0.02371358504333331</v>
+        <v>0.02116319764869784</v>
       </c>
       <c r="D93">
-        <v>0.02484257255172559</v>
+        <v>0.03059810362120218</v>
       </c>
       <c r="E93">
-        <v>0.02049559363170609</v>
+        <v>0.02442721682620253</v>
       </c>
       <c r="F93">
-        <v>0.01780349994843169</v>
+        <v>0.01401047753006967</v>
       </c>
       <c r="G93">
-        <v>-0.003205646276129708</v>
+        <v>-0.006420778298131553</v>
       </c>
       <c r="H93">
-        <v>0.003402999071439485</v>
+        <v>-0.002717769688573299</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.02591366678252758</v>
+        <v>-0.002993736364389196</v>
       </c>
       <c r="C94">
-        <v>0.03085681748739796</v>
+        <v>0.002899419053732705</v>
       </c>
       <c r="D94">
-        <v>0.02344262380735362</v>
+        <v>0.00275961939221586</v>
       </c>
       <c r="E94">
-        <v>0.01792247667160678</v>
+        <v>0.002598216757702891</v>
       </c>
       <c r="F94">
-        <v>0.01794061979667366</v>
+        <v>0.00143107030928576</v>
       </c>
       <c r="G94">
-        <v>-0.003143365575169163</v>
+        <v>-0.000673280487363514</v>
       </c>
       <c r="H94">
-        <v>0.01054143245807411</v>
+        <v>0.001042186958716081</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.02313175305443198</v>
+        <v>-0.003583369160965558</v>
       </c>
       <c r="C95">
-        <v>0.0219463291955704</v>
+        <v>0.002849065109892386</v>
       </c>
       <c r="D95">
-        <v>0.02437106180022744</v>
+        <v>0.003487543785442057</v>
       </c>
       <c r="E95">
-        <v>0.02096740737601354</v>
+        <v>0.002584902925835561</v>
       </c>
       <c r="F95">
-        <v>0.02035095876212499</v>
+        <v>0.001538960947596904</v>
       </c>
       <c r="G95">
-        <v>-0.003195376254487291</v>
+        <v>-0.000670686112193458</v>
       </c>
       <c r="H95">
-        <v>0.009914811184706031</v>
+        <v>0.001335412191586332</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.03016664446483696</v>
+        <v>-1.721790181403678</v>
       </c>
       <c r="C96">
-        <v>0.02880184163050749</v>
+        <v>0.6503863793937342</v>
       </c>
       <c r="D96">
-        <v>0.03099136430272278</v>
+        <v>2.549899165659255</v>
       </c>
       <c r="E96">
-        <v>0.01983324789604631</v>
+        <v>0.3700806949432632</v>
       </c>
       <c r="F96">
-        <v>0.01966410054413539</v>
+        <v>-0.04713678137220279</v>
       </c>
       <c r="G96">
-        <v>-0.003126049288473935</v>
+        <v>0.03959326766935025</v>
       </c>
       <c r="H96">
-        <v>0.004922537720591227</v>
+        <v>0.04415947935384996</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.02617301626303364</v>
+        <v>-0.5038978162009367</v>
       </c>
       <c r="C97">
-        <v>0.03027297617280577</v>
+        <v>0.5596845020311109</v>
       </c>
       <c r="D97">
-        <v>0.02665215592160908</v>
+        <v>0.2224397738809254</v>
       </c>
       <c r="E97">
-        <v>0.01761747837728596</v>
+        <v>0.3659839822277718</v>
       </c>
       <c r="F97">
-        <v>0.01796867702273209</v>
+        <v>0.222089846054291</v>
       </c>
       <c r="G97">
-        <v>-0.003187969605716775</v>
+        <v>-0.1437396000232142</v>
       </c>
       <c r="H97">
-        <v>0.003594929759558111</v>
+        <v>0.2264249205680984</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.3769096328392233</v>
+        <v>-0.4319425869402819</v>
       </c>
       <c r="C98">
-        <v>0.4217349103449531</v>
+        <v>0.4082738408554885</v>
       </c>
       <c r="D98">
-        <v>0.5289036311843517</v>
+        <v>0.4968007465300665</v>
       </c>
       <c r="E98">
-        <v>0.211873616486153</v>
+        <v>0.2695865243644071</v>
       </c>
       <c r="F98">
-        <v>0.06038339147293403</v>
+        <v>0.3286598788000045</v>
       </c>
       <c r="G98">
-        <v>-0.0591049210615165</v>
+        <v>-0.1465923480464573</v>
       </c>
       <c r="H98">
-        <v>0.1783784942428504</v>
+        <v>0.2067259456425111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.02037396333878281</v>
+        <v>-0.002990908223806537</v>
       </c>
       <c r="C99">
-        <v>0.02302005508403185</v>
+        <v>0.003104722349731181</v>
       </c>
       <c r="D99">
-        <v>0.02327652498102321</v>
+        <v>0.003364601234456459</v>
       </c>
       <c r="E99">
-        <v>0.02086106029624697</v>
+        <v>0.001851763771844839</v>
       </c>
       <c r="F99">
-        <v>0.01519818946694477</v>
+        <v>0.001213184748423515</v>
       </c>
       <c r="G99">
-        <v>-0.003144159866858391</v>
+        <v>-0.0006708492978488706</v>
       </c>
       <c r="H99">
-        <v>0.007512314455846898</v>
+        <v>-1.319299375071713E-06</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8167396221770502</v>
+        <v>-0.02521569346611015</v>
       </c>
       <c r="C100">
-        <v>1.75211959355424</v>
+        <v>0.02056866890927874</v>
       </c>
       <c r="D100">
-        <v>0.7152273009526895</v>
+        <v>0.03181063924726043</v>
       </c>
       <c r="E100">
-        <v>0.2753950980122147</v>
+        <v>0.02096467273054048</v>
       </c>
       <c r="F100">
-        <v>0.1333648952425655</v>
+        <v>0.01211592582378374</v>
       </c>
       <c r="G100">
-        <v>-1.115656340033799</v>
+        <v>-0.006386878271718312</v>
       </c>
       <c r="H100">
-        <v>0.2408949947844949</v>
+        <v>0.006832365105761088</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.6344976876260873</v>
+        <v>-1.164477862532523</v>
       </c>
       <c r="C101">
-        <v>1.384557860968659</v>
+        <v>0.6009939035770262</v>
       </c>
       <c r="D101">
-        <v>0.3684538046649798</v>
+        <v>1.367431935840642</v>
       </c>
       <c r="E101">
-        <v>0.5752542007239849</v>
+        <v>0.4291887392365935</v>
       </c>
       <c r="F101">
-        <v>0.04287287155710967</v>
+        <v>0.3174566547674547</v>
       </c>
       <c r="G101">
-        <v>-0.6436038734914787</v>
+        <v>-0.203787133074038</v>
       </c>
       <c r="H101">
-        <v>0.4817408421464987</v>
+        <v>0.01915445889507713</v>
       </c>
     </row>
   </sheetData>
